--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22069028-41B6-4B4E-89B0-D1AF25BE2DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DEEC4-EC86-294B-9601-362B2625DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Publicação</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hMBRirvZddFfGkzH_PhRqIN0oXMbAVQy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “SEATED LIMITS-OF-STABILITY OF ATHLETES WITH DISABILITIES WITH REGARD TO COMPETITIVE LEVELS AND SPORT CLASSIFICATION”, com os autores Paula Britto Rodrigues Santos, Patrícia dos Santos Vigário, Miriam Raquel Meira Mainenti, Arthur de Sá Ferreira, Thiago Lemos de Carvalho, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Reabilitação no Esporte e no Esporte Adaptado, sob a orientação do Prof. Dr. Thiago Lemos de Carvalho, em 15/07/2021.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1olqp00ASmttw9ZoDK9D55bQmgQ-v4Pz6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “PREDICTIVE MODELS FOR THE SIX-MINUTE WALK TEST CONSIDERING THE WALKING COURSE AND PHYSICAL ACTIVITY LEVEL”, com os autores Vívian Pinto de Almeida, Arthur de Sá Ferreira, Fernando Silva Guimarães, Jannis Papathanasiou, Agnaldo José Lopes, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Avaliação Funcional em Reabilitação, sob a orientação do Prof. Dr. Agnaldo José Lopes, em 15/07/2021.</t>
+  </si>
+  <si>
+    <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “TRIAL PROTOCOL: COGNITIVE FUNCTIONAL THERAPY COMPARED WITH COMBINED MANUAL THERAPY AND MOTOR CONTROL EXERCISE FOR PEOPLE WITH NON-SPECIFIC CHRONIC LOW BACK PAIN: PROTOCOL FOR A RANDOMISED, CONTROLLED TRIAL”, com os autores Fabiana Terra Cunha Belache, Cíntia Pereira de Souza, Jessica Fernandez, Julia Castro, Paula Dos Santos Ferreira, Elizana Rodrigues de Sousa Rosa, Nathalia Cristina Gimenez de Araújo, Felipe José Jandre Reis, Renato Santos de Almeida, Leandro Alberto Calazans Nogueira, Luís Cláudio Lemos Correia e Ney Armando de Mello Meziat Filho, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Abordagem Terapêutica em Reabilitação, sob a orientação do Prof. Dr. Ney Armando de Mello Meziat Filho, em 15/07/2021.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ohlSTGpSCgcR7wHfjI-piNMf9dVHASSd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1om_Rt_P7Fp-BR1VaPOI_UHLu3nctjpwc/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,29 +580,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>44432</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44432</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44432</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44286</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="C5" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A2:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition descending="1" ref="A2:A7"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B37F8D28-9336-DB41-9F10-DC9585D6032C}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{BC9328E3-A967-AD45-A782-39929F6AAD89}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D95D4445-F887-8845-B2BE-C9817F49A5FC}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{D95D4445-F887-8845-B2BE-C9817F49A5FC}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{B84A7431-3D88-3E44-8EBF-0C45560D5C38}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{CA3C2473-7466-7F4E-97C2-7DBD2B2C06A8}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{F427C5AB-CDF8-5B4F-9026-3D5E9C95FB35}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DEEC4-EC86-294B-9601-362B2625DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79EBE4-E202-464B-A71B-4CC12B98B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Publicação</t>
   </si>
@@ -64,9 +64,6 @@
     <t>https://drive.google.com/file/d/1hjuXmKM11SwHcoaX3EccAnyMeV6BZz6_/view?usp=sharing</t>
   </si>
   <si>
-    <t xml:space="preserve"> CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Gait initiation in patients with plantar heel pain: a matched case-control study de autoria de LETICIA AMARAL CORRÊA, THIAGO LEMOS, BRUNO DOS SANTOS, LUCIANO SANTOS, ARTHUR DE SÁ FERREIRA, LEANDRO ALBERTO CALAZANS NOGUEIRA que foi classificado em 1o lugar Modalidade E-PÔSTER na área:Fisioterapia Traumato-Ortopédica, Fisioterapia Esportiva e Fisioterapia em Osteopatia no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
-  </si>
-  <si>
     <t>Certificamos que o trabalho “EFEITOS DA UTILIZAÇÃO DO APRV EM PROTOCOLO TCAV COMO ESTRATÉGIA DE RESGATE DA HIPOXEMIA REFRATÁRIA GRAVE EM PACIENTES SDRA POR EVOLUÇÃO DA COVID-19” dos autores: Jeana Carla da Silva Borges; João Paulo Arruda de Oliveira; Sergio Nogueira Nemer; Clara Pinto Diniz; Agnaldo José Lopes; Luis Felipe da Fonseca Reis, foi premiado em 1o LUGAR na área “FISIOTERAPIA EM TERAPIA INTENSIVA – ADULTO”, na categoria “PÔSTER MODERADO”, no XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR), realizado no período de 27 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC</t>
   </si>
   <si>
@@ -92,6 +89,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1om_Rt_P7Fp-BR1VaPOI_UHLu3nctjpwc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tV_rqWJckbnhrTQnf8O4yda-H1aMYjm3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Gait initiation in patients with plantar heel pain: a matched case-control study de autoria de LETICIA AMARAL CORRÊA, THIAGO LEMOS, BRUNO DOS SANTOS, LUCIANO SANTOS, ARTHUR DE SÁ FERREIRA, LEANDRO ALBERTO CALAZANS NOGUEIRA que foi classificado em 1o lugar Modalidade E-PÔSTER na área:Fisioterapia Traumato-Ortopédica, Fisioterapia Esportiva e Fisioterapia em Osteopatia no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
+  </si>
+  <si>
+    <t>CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Sinais não-atáxicos em uma amostra de indivíduos brasileiros com Ataxia Espinocerebelar tipo 3 de autoria de ALINE PALOMA DUARTE MACÊDO, CAMILLA POLONINI MARTINS, MARIAN DA SILVA SALVINO, YURI RODRIGUYES LUZ DE ARAUJO, Leda Maria Neumann Keim, Fernanda Baseggio, Laura Alice Santos de Oliveira que foi classificado em 1o lugar Modalidade ORAL na área: Fisioterapia Neurofuncional no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
+  </si>
+  <si>
+    <t>CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Efeito de uma sessão de estimulação transcraniana por corrente continua sobre a iniciação da marcha de indivíduos com Parkison de autoria de CARLOS HENRIQUE RAMOS HORSCZARUK, Thiago Lemos, Débora Cristina Lima da SIlva, Erika Carvalho Rodrigues, Laura Alice Santos de Oliveira que foi classificado em 2o lugar Modalidade ORAL na área: Fisioterapia Neurofuncional no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
   </si>
 </sst>
 </file>
@@ -516,13 +525,13 @@
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -585,10 +594,10 @@
         <v>44432</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -596,10 +605,10 @@
         <v>44432</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -607,10 +616,10 @@
         <v>44432</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -618,10 +627,32 @@
         <v>44286</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -635,6 +666,8 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{B84A7431-3D88-3E44-8EBF-0C45560D5C38}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{CA3C2473-7466-7F4E-97C2-7DBD2B2C06A8}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{F427C5AB-CDF8-5B4F-9026-3D5E9C95FB35}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{DCBA4062-3B07-D347-977B-CAAD97D892E0}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{A7AC5ECA-238A-A348-B675-7B9478405C99}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79EBE4-E202-464B-A71B-4CC12B98B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3860D-1D5E-404B-B5BE-8DC8674443E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Publicação</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Certificamos que o trabalho “EFEITOS DA UTILIZAÇÃO DO APRV EM PROTOCOLO TCAV COMO ESTRATÉGIA DE RESGATE DA HIPOXEMIA REFRATÁRIA GRAVE EM PACIENTES SDRA POR EVOLUÇÃO DA COVID-19” dos autores: Jeana Carla da Silva Borges; João Paulo Arruda de Oliveira; Sergio Nogueira Nemer; Clara Pinto Diniz; Agnaldo José Lopes; Luis Felipe da Fonseca Reis, foi premiado em 1o LUGAR na área “FISIOTERAPIA EM TERAPIA INTENSIVA – ADULTO”, na categoria “PÔSTER MODERADO”, no XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR), realizado no período de 27 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC</t>
   </si>
   <si>
-    <t>30/042022</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1hMBRirvZddFfGkzH_PhRqIN0oXMbAVQy/view?usp=sharing</t>
   </si>
   <si>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Efeito de uma sessão de estimulação transcraniana por corrente continua sobre a iniciação da marcha de indivíduos com Parkison de autoria de CARLOS HENRIQUE RAMOS HORSCZARUK, Thiago Lemos, Débora Cristina Lima da SIlva, Erika Carvalho Rodrigues, Laura Alice Santos de Oliveira que foi classificado em 2o lugar Modalidade ORAL na área: Fisioterapia Neurofuncional no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho FATORES ASSOCIADOS A MORTALIDADE EM PACIENTES VENTILADOS MECANICAMENTE COM SÍNDROME RESPIRATÓRIA AGUDA GRAVE POR EVOLUÇÃO DA COVID-19 EM UMA COORTE MULTICÊNTRICA RETROSPECTIVA de autoria de JOÃO PAULO ARRUDA DE OLIVEIRA; CLARA PINTO DINIZ; ANDREIA CRISTINA TRAVASSOS DA COSTA; AGNALDO JOSÉ LOPES; ARTHUR DE SÁ FERREIRA; LUIS FELIPE DA FONSECA REIS foi apresentado como PRÊMIO FISIOTERAPIA NA COVID-19 (PCOV) durante do XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR 2022), realizado no período de 28 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yKcjwHDeo6fMZLaw8Ea4C74kM9upthW_/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,19 +527,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="7">
+        <v>44681</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{319EEE0E-B926-C340-8AE8-93946D0107E8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D2FA4BDB-0A34-1241-8CE2-97F1E4C89E9F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -594,10 +609,10 @@
         <v>44432</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -605,10 +620,10 @@
         <v>44432</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -616,10 +631,10 @@
         <v>44432</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -627,7 +642,7 @@
         <v>44286</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -638,10 +653,10 @@
         <v>44286</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -649,10 +664,10 @@
         <v>44286</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3860D-1D5E-404B-B5BE-8DC8674443E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA6697-CE82-6D40-B85E-E4DD086F179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Publicação</t>
   </si>
@@ -46,51 +46,27 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hjzzq7rdzQXeiYUU7RUWRX3PjK5VUUS-/view?usp=sharing</t>
-  </si>
-  <si>
     <t>17 a 18/04/2021</t>
   </si>
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hq6e_BbgNHchvU9zfs0cHWJTTbWSDcFl/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Certificamos que JULIANA VALENTIM BITTENCOURT, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hjuXmKM11SwHcoaX3EccAnyMeV6BZz6_/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Certificamos que o trabalho “EFEITOS DA UTILIZAÇÃO DO APRV EM PROTOCOLO TCAV COMO ESTRATÉGIA DE RESGATE DA HIPOXEMIA REFRATÁRIA GRAVE EM PACIENTES SDRA POR EVOLUÇÃO DA COVID-19” dos autores: Jeana Carla da Silva Borges; João Paulo Arruda de Oliveira; Sergio Nogueira Nemer; Clara Pinto Diniz; Agnaldo José Lopes; Luis Felipe da Fonseca Reis, foi premiado em 1o LUGAR na área “FISIOTERAPIA EM TERAPIA INTENSIVA – ADULTO”, na categoria “PÔSTER MODERADO”, no XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR), realizado no período de 27 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hMBRirvZddFfGkzH_PhRqIN0oXMbAVQy/view?usp=sharing</t>
-  </si>
-  <si>
     <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “SEATED LIMITS-OF-STABILITY OF ATHLETES WITH DISABILITIES WITH REGARD TO COMPETITIVE LEVELS AND SPORT CLASSIFICATION”, com os autores Paula Britto Rodrigues Santos, Patrícia dos Santos Vigário, Miriam Raquel Meira Mainenti, Arthur de Sá Ferreira, Thiago Lemos de Carvalho, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Reabilitação no Esporte e no Esporte Adaptado, sob a orientação do Prof. Dr. Thiago Lemos de Carvalho, em 15/07/2021.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1olqp00ASmttw9ZoDK9D55bQmgQ-v4Pz6/view?usp=sharing</t>
-  </si>
-  <si>
     <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “PREDICTIVE MODELS FOR THE SIX-MINUTE WALK TEST CONSIDERING THE WALKING COURSE AND PHYSICAL ACTIVITY LEVEL”, com os autores Vívian Pinto de Almeida, Arthur de Sá Ferreira, Fernando Silva Guimarães, Jannis Papathanasiou, Agnaldo José Lopes, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Avaliação Funcional em Reabilitação, sob a orientação do Prof. Dr. Agnaldo José Lopes, em 15/07/2021.</t>
   </si>
   <si>
     <t>A Direção de Pesquisa, Inovação e Extensão tem a honra de certificar o artigo intitulado “TRIAL PROTOCOL: COGNITIVE FUNCTIONAL THERAPY COMPARED WITH COMBINED MANUAL THERAPY AND MOTOR CONTROL EXERCISE FOR PEOPLE WITH NON-SPECIFIC CHRONIC LOW BACK PAIN: PROTOCOL FOR A RANDOMISED, CONTROLLED TRIAL”, com os autores Fabiana Terra Cunha Belache, Cíntia Pereira de Souza, Jessica Fernandez, Julia Castro, Paula Dos Santos Ferreira, Elizana Rodrigues de Sousa Rosa, Nathalia Cristina Gimenez de Araújo, Felipe José Jandre Reis, Renato Santos de Almeida, Leandro Alberto Calazans Nogueira, Luís Cláudio Lemos Correia e Ney Armando de Mello Meziat Filho, como vencedores do Prêmio do Programa de Pós-graduação em Ciências da Reabilitação de Melhor Artigo (período 2017-2020) na Linha de Pesquisa Abordagem Terapêutica em Reabilitação, sob a orientação do Prof. Dr. Ney Armando de Mello Meziat Filho, em 15/07/2021.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ohlSTGpSCgcR7wHfjI-piNMf9dVHASSd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1om_Rt_P7Fp-BR1VaPOI_UHLu3nctjpwc/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tV_rqWJckbnhrTQnf8O4yda-H1aMYjm3/view?usp=sharing</t>
-  </si>
-  <si>
     <t>CERTIFICADO DE MENÇÃO HONROSA para o trabalho: Gait initiation in patients with plantar heel pain: a matched case-control study de autoria de LETICIA AMARAL CORRÊA, THIAGO LEMOS, BRUNO DOS SANTOS, LUCIANO SANTOS, ARTHUR DE SÁ FERREIRA, LEANDRO ALBERTO CALAZANS NOGUEIRA que foi classificado em 1o lugar Modalidade E-PÔSTER na área:Fisioterapia Traumato-Ortopédica, Fisioterapia Esportiva e Fisioterapia em Osteopatia no XXIII Congresso Brasileiro de Fisioterapia realizado de 29 a 31 de março de 2021 - Edição on-line.</t>
   </si>
   <si>
@@ -103,7 +79,34 @@
     <t>Certificamos que o trabalho FATORES ASSOCIADOS A MORTALIDADE EM PACIENTES VENTILADOS MECANICAMENTE COM SÍNDROME RESPIRATÓRIA AGUDA GRAVE POR EVOLUÇÃO DA COVID-19 EM UMA COORTE MULTICÊNTRICA RETROSPECTIVA de autoria de JOÃO PAULO ARRUDA DE OLIVEIRA; CLARA PINTO DINIZ; ANDREIA CRISTINA TRAVASSOS DA COSTA; AGNALDO JOSÉ LOPES; ARTHUR DE SÁ FERREIRA; LUIS FELIPE DA FONSECA REIS foi apresentado como PRÊMIO FISIOTERAPIA NA COVID-19 (PCOV) durante do XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR 2022), realizado no período de 28 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1yKcjwHDeo6fMZLaw8Ea4C74kM9upthW_/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1lpgsPRm4DKILGCs0qDCVfRZLy7EYm5k3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
         <v>44681</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -542,16 +545,16 @@
         <v>44681</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{319EEE0E-B926-C340-8AE8-93946D0107E8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D2FA4BDB-0A34-1241-8CE2-97F1E4C89E9F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -584,24 +587,24 @@
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -609,10 +612,10 @@
         <v>44432</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -620,10 +623,10 @@
         <v>44432</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -631,10 +634,10 @@
         <v>44432</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -642,10 +645,10 @@
         <v>44286</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -653,10 +656,10 @@
         <v>44286</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -664,10 +667,10 @@
         <v>44286</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -675,14 +678,13 @@
     <sortCondition descending="1" ref="A2:A7"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B37F8D28-9336-DB41-9F10-DC9585D6032C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{BC9328E3-A967-AD45-A782-39929F6AAD89}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{D95D4445-F887-8845-B2BE-C9817F49A5FC}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B84A7431-3D88-3E44-8EBF-0C45560D5C38}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{CA3C2473-7466-7F4E-97C2-7DBD2B2C06A8}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{F427C5AB-CDF8-5B4F-9026-3D5E9C95FB35}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{DCBA4062-3B07-D347-977B-CAAD97D892E0}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A7AC5ECA-238A-A348-B675-7B9478405C99}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA6697-CE82-6D40-B85E-E4DD086F179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54DF5CF-6455-0848-88BF-4B95124E499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
     <sheet name="2021" sheetId="1" r:id="rId2"/>
+    <sheet name="2019" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Publicação</t>
   </si>
@@ -107,6 +108,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>19 a 20/07/2019</t>
+  </si>
+  <si>
+    <t>Atestamos que JESSICA FERNANDEZ MOSQUEIRA GOMES recebveu MENÇÃO HONROSA pela apresentação do trabalho intitulado: "Start Back e Örebro como preditores de incapacidade em pacientes com dor lombar crônica inespecífica submetidos à fisioterapia" (Fernandez J, Belache F, SOuza C, Pereira P, Castro J, Pinheiro L, Rochas C, Ferreira A, Meziat-Filho N) no I SEMDOR - SImpósio sobre Evidência no Manejo da Dor - promovido pelo Laboratório de Pesquisa sobre Movimento e Dor (LabMovDor) da Universidade de São Paulo (USP), com carga horária de 12 horas.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -162,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -173,22 +183,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,8 +516,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -522,7 +526,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -530,10 +534,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>44681</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -541,10 +545,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>44681</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -568,8 +572,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -578,7 +582,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -611,7 +615,7 @@
       <c r="A4" s="4">
         <v>44432</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -622,7 +626,7 @@
       <c r="A5" s="4">
         <v>44432</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -633,7 +637,7 @@
       <c r="A6" s="4">
         <v>44432</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -644,7 +648,7 @@
       <c r="A7" s="4">
         <v>44286</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -655,7 +659,7 @@
       <c r="A8" s="4">
         <v>44286</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -666,7 +670,7 @@
       <c r="A9" s="4">
         <v>44286</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -688,4 +692,48 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54DF5CF-6455-0848-88BF-4B95124E499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2974A5A-3112-6E4F-AD22-6B5D81DDE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" activeTab="2" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -80,43 +80,43 @@
     <t>Certificamos que o trabalho FATORES ASSOCIADOS A MORTALIDADE EM PACIENTES VENTILADOS MECANICAMENTE COM SÍNDROME RESPIRATÓRIA AGUDA GRAVE POR EVOLUÇÃO DA COVID-19 EM UMA COORTE MULTICÊNTRICA RETROSPECTIVA de autoria de JOÃO PAULO ARRUDA DE OLIVEIRA; CLARA PINTO DINIZ; ANDREIA CRISTINA TRAVASSOS DA COSTA; AGNALDO JOSÉ LOPES; ARTHUR DE SÁ FERREIRA; LUIS FELIPE DA FONSECA REIS foi apresentado como PRÊMIO FISIOTERAPIA NA COVID-19 (PCOV) durante do XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR 2022), realizado no período de 28 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lpgsPRm4DKILGCs0qDCVfRZLy7EYm5k3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing</t>
-  </si>
-  <si>
     <t>19 a 20/07/2019</t>
   </si>
   <si>
     <t>Atestamos que JESSICA FERNANDEZ MOSQUEIRA GOMES recebveu MENÇÃO HONROSA pela apresentação do trabalho intitulado: "Start Back e Örebro como preditores de incapacidade em pacientes com dor lombar crônica inespecífica submetidos à fisioterapia" (Fernandez J, Belache F, SOuza C, Pereira P, Castro J, Pinheiro L, Rochas C, Ferreira A, Meziat-Filho N) no I SEMDOR - SImpósio sobre Evidência no Manejo da Dor - promovido pelo Laboratório de Pesquisa sobre Movimento e Dor (LabMovDor) da Universidade de São Paulo (USP), com carga horária de 12 horas.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lpgsPRm4DKILGCs0qDCVfRZLy7EYm5k3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -630,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -682,13 +682,13 @@
     <sortCondition descending="1" ref="A2:A7"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -698,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -721,10 +721,10 @@
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>26</v>
@@ -732,7 +732,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557FC4A-49F8-BE49-94A6-1CDE7B5E7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644F890-1C16-724B-ACD3-DC120D2FD33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Publicação</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Y2DLPet5niWOrZ31z9uH6trf63nEPl6Y</t>
+  </si>
+  <si>
+    <t>Destaque 2022 - CAMILO ZUMBI RAFAGNIN - FISIOTERAPEUTA - Este certificado é um prêmio doJornal de Beltrão, Acefb e CDL. Aescolha se deu através de pesquisa popular, cientificamenteelaborada, aplicada nocentro, bairros einterior domunicípio nosmeses de outubro e novembro deste ano. Aentrega ocorreu durante jantar no Marabá Centro de Eventos, dia 10 de dezembro de 2022.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GVLt4PCha0dBewa5YTFz7VqeoFEgBXiX</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +536,7 @@
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -547,35 +553,35 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44890</v>
+        <v>44905</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
+        <v>44890</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44880</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44681</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -583,18 +589,30 @@
         <v>44681</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44681</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{36CF8725-F50B-5D42-97B8-538541AFAC3B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644F890-1C16-724B-ACD3-DC120D2FD33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D20DBF-A5D1-0241-A7C5-21C81D8A2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2021" sheetId="1" r:id="rId2"/>
-    <sheet name="2019" sheetId="17" r:id="rId3"/>
+    <sheet name="2023" sheetId="18" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2021" sheetId="1" r:id="rId3"/>
+    <sheet name="2019" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Publicação</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1GVLt4PCha0dBewa5YTFz7VqeoFEgBXiX</t>
+  </si>
+  <si>
+    <t>Ceritifico que RODRIGO RIBEIRO recebeu o prêmio Pólen UNISUAM Awards, realizado no dia 13/02/23 e organizado pelo Pólen - Polo de Inovação da UNISUAM, na categoria de Coordenador do Centro Universitário Augusto Motta que mais fomentou a Inovação e o Empreededorismo.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lcPzLdnI_wxl4RLC3RV8spQ_DZVjKIl2</t>
   </si>
 </sst>
 </file>
@@ -527,8 +534,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,6 +558,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{57199C44-5C0E-C341-8D42-F1B6F6274AC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44905</v>
@@ -618,7 +669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -748,7 +799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D20DBF-A5D1-0241-A7C5-21C81D8A2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D779DC-8BF7-1840-91E2-38DBE326363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Publicação</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lcPzLdnI_wxl4RLC3RV8spQ_DZVjKIl2</t>
+  </si>
+  <si>
+    <t>KTK OUTSTANDING ACHIEVERS AND EDUCATION FOUNDATION PRESENTS CERTIFICATE OF EXCELLENCE THIS CERTFICATE IS PROUDLY PRESENTED TO DR. JAYA SHANKER TEDLA PROGRAM COORDINATOR AND ASSISTANT PROFESSOR COLLEGE OF APPLIED MEDICAL SCIENCES, KING KHALID UNIVERSITY ABHA, ASIR, KINGDOM OF SAUDI ARABIA FOR OUTSTANDING ACHIEVEMENTS AND REMARKABLE CONTRIBUTIONNI HET FEILD OF FOPHYSIOTHERAPY at New Delhi on 19th February.,2023.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HDesWJHk3L9--NOaU59cBgTcSHN409JM</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,20 +564,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>44976</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44970</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{57199C44-5C0E-C341-8D42-F1B6F6274AC5}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D779DC-8BF7-1840-91E2-38DBE326363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C1BF6-CF31-7740-AE9D-4D1685BF9671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2021" sheetId="1" r:id="rId3"/>
     <sheet name="2019" sheetId="17" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -144,10 +146,10 @@
     <t>https://drive.google.com/file/d/1lcPzLdnI_wxl4RLC3RV8spQ_DZVjKIl2</t>
   </si>
   <si>
-    <t>KTK OUTSTANDING ACHIEVERS AND EDUCATION FOUNDATION PRESENTS CERTIFICATE OF EXCELLENCE THIS CERTFICATE IS PROUDLY PRESENTED TO DR. JAYA SHANKER TEDLA PROGRAM COORDINATOR AND ASSISTANT PROFESSOR COLLEGE OF APPLIED MEDICAL SCIENCES, KING KHALID UNIVERSITY ABHA, ASIR, KINGDOM OF SAUDI ARABIA FOR OUTSTANDING ACHIEVEMENTS AND REMARKABLE CONTRIBUTIONNI HET FEILD OF FOPHYSIOTHERAPY at New Delhi on 19th February.,2023.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1HDesWJHk3L9--NOaU59cBgTcSHN409JM</t>
+  </si>
+  <si>
+    <t>KTK Outstanding Achievers and Education Foundation presents certificate of excellence. This certificate is proudly presented to dr. Jaya Shanker Tedla program coordinator and assistant professor College of Applied Medical Sciences, King Khalid University Abha, Asir, Kingdom of Saudi Arabia for outstanding achievements and remarkable contribution to the field of physiotherapy at New Delhi on 19th February, 2023.</t>
   </si>
 </sst>
 </file>
@@ -564,15 +566,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44976</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C1BF6-CF31-7740-AE9D-4D1685BF9671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED42002-0492-CE49-8B09-9837B455CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="2022" sheetId="15" r:id="rId2"/>
     <sheet name="2021" sheetId="1" r:id="rId3"/>
     <sheet name="2019" sheetId="17" r:id="rId4"/>
+    <sheet name="2013" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Publicação</t>
   </si>
@@ -150,6 +151,13 @@
   </si>
   <si>
     <t>KTK Outstanding Achievers and Education Foundation presents certificate of excellence. This certificate is proudly presented to dr. Jaya Shanker Tedla program coordinator and assistant professor College of Applied Medical Sciences, King Khalid University Abha, Asir, Kingdom of Saudi Arabia for outstanding achievements and remarkable contribution to the field of physiotherapy at New Delhi on 19th February, 2023.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M0cz2fKfNgR7IgewrTaE0epac6j0tP22</t>
+  </si>
+  <si>
+    <t>The Impact of Treadmill Training Using Body Weight Support on Gait Performance, Oxygen Uptake, and Risk of Falling in Persons With Spinocerebellar Ataxia
+Polonini CM1 , Rodrigues EC1 , Horsczaruk1 CH, Lima1 DC, Vasconcellos LF2 , Oliveira LAS1 - Associação Brasileira de Fisiotherapia Neurofunctional (ABRAFIN) Best Abstract Awards - Journal of Neurologic Physical Therapy 37(1):p 44-45, March 2013. | DOI: 10.1097/NPT.0b013e3182840354 - Journal of Neurologic Physical Therapy is pleased to publish the 4 most outstanding abstracts presented at the ABRAFIN conference in Rio de Janeiro, Brazil, November 15–17, 2012.</t>
   </si>
 </sst>
 </file>
@@ -861,4 +869,48 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5230BC43-109A-184D-8E9F-88EE481ED2D1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED42002-0492-CE49-8B09-9837B455CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1198D70-C3B6-7847-A127-7086DEE25B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Publicação</t>
   </si>
@@ -158,6 +158,24 @@
   <si>
     <t>The Impact of Treadmill Training Using Body Weight Support on Gait Performance, Oxygen Uptake, and Risk of Falling in Persons With Spinocerebellar Ataxia
 Polonini CM1 , Rodrigues EC1 , Horsczaruk1 CH, Lima1 DC, Vasconcellos LF2 , Oliveira LAS1 - Associação Brasileira de Fisiotherapia Neurofunctional (ABRAFIN) Best Abstract Awards - Journal of Neurologic Physical Therapy 37(1):p 44-45, March 2013. | DOI: 10.1097/NPT.0b013e3182840354 - Journal of Neurologic Physical Therapy is pleased to publish the 4 most outstanding abstracts presented at the ABRAFIN conference in Rio de Janeiro, Brazil, November 15–17, 2012.</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "Associação entre dor frequente e características socioeconômicas em adultos de meia idade e idosos brasileiros a partir de dados do ELSI-Brasil" dos autores Brasil; Moreira, L. F.; Nogueira, L. A. C. apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico ACIENTES COM DOR LOMBAR CRÔNICA EMÁ QUALIDADE DO SONO APRESENTARAM MAIOR INTENSIDADE DE DOR, LIMITAÇÃO FUNCIONAL E PRESENÇA DE FATORES PSICOSSOCIAIS" dos autores Correa, L. A; Moreira, L. F.; Valentim, .J .C de P.; Fernandes, L. A. P. P.; Nogueira, L. A. C apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "ASSOCIAÇÃO DE LESÕES RELACIONADAS À CORRIDA COM VOLUME DE TREINO, EXERCÍCIOS RESISTIDOS E DESEMPENHO FÍSICO DE MEMBROS INFERIORES EM CORREDORES DE RUA" dos autores de Souza, Carlos Eduardo Pereira; Telles, Gustavo Felício; Nogueira, Leandro Alberto Calazans. apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1olM350czcjxmkmaxAJ0m6R5rBbuGN3mU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1omBkTTt-jdGsz0rMVlc6IPpCEMcD79oI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1opOn2_NJRE-mvOiSnWdUJJL-4nzjTrJX</t>
   </si>
 </sst>
 </file>
@@ -213,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,6 +253,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,32 +601,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>45031</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>45031</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>45031</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>44976</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44970</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1198D70-C3B6-7847-A127-7086DEE25B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462A2DF-BBD0-7242-B16D-04C9CD8BE757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Publicação</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "Associação entre dor frequente e características socioeconômicas em adultos de meia idade e idosos brasileiros a partir de dados do ELSI-Brasil" dos autores Brasil; Moreira, L. F.; Nogueira, L. A. C. apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
   </si>
   <si>
-    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico ACIENTES COM DOR LOMBAR CRÔNICA EMÁ QUALIDADE DO SONO APRESENTARAM MAIOR INTENSIDADE DE DOR, LIMITAÇÃO FUNCIONAL E PRESENÇA DE FATORES PSICOSSOCIAIS" dos autores Correa, L. A; Moreira, L. F.; Valentim, .J .C de P.; Fernandes, L. A. P. P.; Nogueira, L. A. C apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
-  </si>
-  <si>
     <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "ASSOCIAÇÃO DE LESÕES RELACIONADAS À CORRIDA COM VOLUME DE TREINO, EXERCÍCIOS RESISTIDOS E DESEMPENHO FÍSICO DE MEMBROS INFERIORES EM CORREDORES DE RUA" dos autores de Souza, Carlos Eduardo Pereira; Telles, Gustavo Felício; Nogueira, Leandro Alberto Calazans. apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
   </si>
   <si>
@@ -176,6 +173,27 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1opOn2_NJRE-mvOiSnWdUJJL-4nzjTrJX</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "Programa de reabilitação domiciliar orientada por fisioterapeuta em pacientes com esclerose sistêmica: avaliação atraves do questionário Cochin Hand Function Scale." dos autores Santos, Brenda Mesquita dos; Silva, Matheus Mello da; Alegria, Samantha Gomes de, Lopes, Agnaldo José apresentado no I CONGRESSO DA SAUDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s-7T4yKQq9Cjl7kECnylq20SgO_KVpHE</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico PACIENTES COM DOR LOMBAR CRÔNICA E MÁ QUALIDADE DO SONO APRESENTARAM MAIOR INTENSIDADE DE DOR, LIMITAÇÃO FUNCIONAL E PRESENÇA DE FATORES PSICOSSOCIAIS" dos autores Correa, L. A; Moreira, L. F.; Valentim, .J .C de P.; Fernandes, L. A. P. P.; Nogueira, L. A. C apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referidotrabalho cientifico "ESTIMATIVA DA APTIDÃO CARDIOPULMONAR USANDO NOVA TECNOLOGIA DE AMOSTRAGEM EM PACIENTES COM ARTRITE REUMATOIDE" dos autores Santos, Brenda Mesquita dos; Farias, lasmim de Oliveira; Deucher, Rafael Alexandre de Oliveira; Azevedo, Beatriz Luiza Pinheiro Alves; Oliveira, Jéssica Gabriela Messias; Lopes, Agnaldo José apresentado no I CONGRESSO DA SAÚDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s08mkPDUXzxEekG62QsQiTrmTF5iUMAb</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA ao referido trabalho cientifico "CORRELAÇÃO ENTRE CAPACIDADE FUNCIONAL, FUNÇAO PULMONAR, FORÇA MUSCULAR E VARIABILIDADE DA FREQUÊNCIA CARDÍACA EM MULHERES COM ESCLEROSE SISTÊMICA" dos autores Saraiva, Nathália Alves de Oliveira; Farias, Iasmim deOliveira; Santos, Brenda Mesquita dos; Lopes, Agnaldo José apresentadono ICONGRESSO DA SAUDE UNISUAM, realizado nos dias 10 a 15 de Abril de 2023, em Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s1XWY2P_yRx_EMkvYXe5NUoo1WrBFL7j</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -253,15 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,68 +610,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>45031</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>39</v>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>45031</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>45031</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>41</v>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
+        <v>45031</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45031</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45031</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44976</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44970</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462A2DF-BBD0-7242-B16D-04C9CD8BE757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37702B1-E09E-834B-81EA-A31E3AE908AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,16 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
-  <si>
-    <t>Publicação</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Abrir</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -194,6 +185,45 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1s1XWY2P_yRx_EMkvYXe5NUoo1WrBFL7j</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>19/02/2023</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>25/11/2022</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t>24/08/2021</t>
+  </si>
+  <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -249,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -271,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,109 +629,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45031</v>
+      <c r="A2" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45031</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45031</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>45031</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>45031</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>45031</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44976</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44970</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -721,76 +757,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44905</v>
+      <c r="A2" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44890</v>
+      <c r="A3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44880</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44681</v>
+      <c r="A5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44681</v>
+      <c r="A6" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -813,109 +849,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44432</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44432</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44432</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>44286</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44286</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -943,32 +979,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -995,24 +1031,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41334</v>
+      <c r="A2" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37702B1-E09E-834B-81EA-A31E3AE908AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F43E77A-1F44-F54F-B468-4056C56EB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>COLABORADOR EMËRITO DO EXÉRCITO - Diploma concedido a(o) Sra PATRICIA DOS SANTOS VIGÁRIO em reconhecimento aos relevantes serviços prestados ao Exército Brasileiro.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uuocCDSux87HxfrrE5A43MBEGY_SDXKi</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,15 +655,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -662,10 +671,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -673,32 +682,32 @@
         <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -706,44 +715,56 @@
         <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F43E77A-1F44-F54F-B468-4056C56EB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE7E96-46CD-574A-9C3C-818C696AC3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1uuocCDSux87HxfrrE5A43MBEGY_SDXKi</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>LMIC Award - This award is given to Ney Meziat-Filho for the oral presentation 'Cognitive functional therapy compared with coreexercises and manual therap in patients with chronic low back pain after spinal surgery: randomized controlled trial during the 18th International Forum for Back and Neck Pain Research in Primary Care - August 29- September 1, 2023 Groningen, The Netherlands</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16qfuvY1BVp6ZeuWLxZ-LjMSwnd6zHGwm</t>
   </si>
 </sst>
 </file>
@@ -632,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,26 +664,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -682,10 +691,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -693,32 +702,32 @@
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -726,45 +735,57 @@
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE7E96-46CD-574A-9C3C-818C696AC3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F0F4E-5FCD-4E46-ACAA-1AE0EC4E188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -229,9 +229,6 @@
     <t>19/04/2023</t>
   </si>
   <si>
-    <t>COLABORADOR EMËRITO DO EXÉRCITO - Diploma concedido a(o) Sra PATRICIA DOS SANTOS VIGÁRIO em reconhecimento aos relevantes serviços prestados ao Exército Brasileiro.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1uuocCDSux87HxfrrE5A43MBEGY_SDXKi</t>
   </si>
   <si>
@@ -242,6 +239,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16qfuvY1BVp6ZeuWLxZ-LjMSwnd6zHGwm</t>
+  </si>
+  <si>
+    <t>16/09/2023</t>
+  </si>
+  <si>
+    <t>MENÇÃO HONROSA - Certificamos que o trabalho intitulado "Comparação do julgamento de lateralidade com a funcionalidade, dor e aspectos proprioceptivos de indivíduos com Síndrome da dor patelofemoral" de autoria de Luiza Ferreira Moreira; Vanessa Knust Coelho; Lucas Ferreira Mendonça; Gustavo Felicio Telles; Leandro Alberto Calazans Nogueira recebeu Menção Honrosa pela apresentação no VI Congresso Brasileiro e Internacional daABRAFITO.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BWF6MyjfjJUh80LwytZ6cg0EHGoy8v4d</t>
+  </si>
+  <si>
+    <t>COLABORADOR EMÉRITO DO EXÉRCITO - Diploma concedido a(o) Sra PATRICIA DOS SANTOS VIGÁRIO em reconhecimento aos relevantes serviços prestados ao Exército Brasileiro.</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,37 +673,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -702,10 +711,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -713,32 +722,32 @@
         <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -746,46 +755,58 @@
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F0F4E-5FCD-4E46-ACAA-1AE0EC4E188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF875607-D20E-DB42-81AC-53A328682908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>COLABORADOR EMÉRITO DO EXÉRCITO - Diploma concedido a(o) Sra PATRICIA DOS SANTOS VIGÁRIO em reconhecimento aos relevantes serviços prestados ao Exército Brasileiro.</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>Conselho Regional de Fisioterapia e Terapia Ocupacional da 2a Região Certificado O Colegiado do Crefito-2 parabeniza e homenageia o professor Arthur de Sá Ferreira pelas contribuições realizadas e m prol do ensino da Fisioterapia na modalidade presencial, e reconhece o valoroso compromisso com aqualidade dos futuros profissionais.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lWvNxxaEo-g1vUrFcKYHBY8r5uaQCYAH</t>
+  </si>
+  <si>
+    <t>Conselho Regional de Fisioterapia e Terapia Ocupacional da 2a Região Certificado O Colegiado do Crefito-2 parabeniza e homenageia o professor Bruno Senos Queiroz Gomes pelas contribuições realizadas e m prol do ensino da Fisioterapia na modalidade presencial, e reconhece o valoroso compromisso com aqualidade dos futuros profissionais.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lrv1NHwOgrHWWq3e4tTi3reNfiLGPTZd</t>
   </si>
 </sst>
 </file>
@@ -650,14 +665,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -673,59 +688,59 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -733,21 +748,21 @@
         <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -755,58 +770,82 @@
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF875607-D20E-DB42-81AC-53A328682908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749B592-B837-CF47-93C7-F037D7566D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>17 a 18/04/2021</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lrv1NHwOgrHWWq3e4tTi3reNfiLGPTZd</t>
+  </si>
+  <si>
+    <t>CERTIFICAMOS QUE O TRABALHO MODELO PREDITIVO PARA ESTIMAR A DISTÂNCIA DE CAMINHADA DE 6 MINUTOS EM PACIENTES COM ESCLEROSESISTÊMICA dos autores Beatriz Silva Chaves; Nathália Aives de Oliveira Saraiva; lasmim de Oliveira Farias; Brenda Mesquita dos Santos;Davi Luiz Olimpio da Silva; Lohana Resende da Costa; Matheus Mello da Silva eAgnaldo José Lopes foi eleito 59. colocado na categoria PÔSTER durante o XIX Congresso de Pneumologia e Tisiologia do Estado do Rio de Janeiro - PreumoinRio 2023, realizado entre os dias 18 e 21 de outubro de 2023 no Hotel Windsor Barra, na cidade do Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ih0bWBmwGmZQ4IcSoeV0tbLa-O0k4LI7</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,15 +694,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -704,54 +710,54 @@
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -759,10 +765,10 @@
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -770,32 +776,32 @@
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -803,49 +809,61 @@
         <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{A485D302-FE3D-D64A-950C-8C0D3E8A7057}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749B592-B837-CF47-93C7-F037D7566D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF80FC-5597-194A-B8F8-3E933DA3AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="18" r:id="rId1"/>
-    <sheet name="2022" sheetId="15" r:id="rId2"/>
-    <sheet name="2021" sheetId="1" r:id="rId3"/>
-    <sheet name="2019" sheetId="17" r:id="rId4"/>
-    <sheet name="2013" sheetId="19" r:id="rId5"/>
+    <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
-  <si>
-    <t>17 a 18/04/2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -73,9 +66,6 @@
   </si>
   <si>
     <t>Certificamos que o trabalho FATORES ASSOCIADOS A MORTALIDADE EM PACIENTES VENTILADOS MECANICAMENTE COM SÍNDROME RESPIRATÓRIA AGUDA GRAVE POR EVOLUÇÃO DA COVID-19 EM UMA COORTE MULTICÊNTRICA RETROSPECTIVA de autoria de JOÃO PAULO ARRUDA DE OLIVEIRA; CLARA PINTO DINIZ; ANDREIA CRISTINA TRAVASSOS DA COSTA; AGNALDO JOSÉ LOPES; ARTHUR DE SÁ FERREIRA; LUIS FELIPE DA FONSECA REIS foi apresentado como PRÊMIO FISIOTERAPIA NA COVID-19 (PCOV) durante do XX SIMPÓSIO INTERNACIONAL DE FISIOTERAPIA CARDIORRESPIRATÓRIA E FISIOTERAPIA EM TERAPIA INTENSIVA (XX SIFR 2022), realizado no período de 28 a 30 de abril de 2022, no Centro Sul – Florianópolis/SC.</t>
-  </si>
-  <si>
-    <t>19 a 20/07/2019</t>
   </si>
   <si>
     <t>Atestamos que JESSICA FERNANDEZ MOSQUEIRA GOMES recebveu MENÇÃO HONROSA pela apresentação do trabalho intitulado: "Start Back e Örebro como preditores de incapacidade em pacientes com dor lombar crônica inespecífica submetidos à fisioterapia" (Fernandez J, Belache F, SOuza C, Pereira P, Castro J, Pinheiro L, Rochas C, Ferreira A, Meziat-Filho N) no I SEMDOR - SImpósio sobre Evidência no Manejo da Dor - promovido pelo Laboratório de Pesquisa sobre Movimento e Dor (LabMovDor) da Universidade de São Paulo (USP), com carga horária de 12 horas.</t>
@@ -187,63 +177,21 @@
     <t>https://drive.google.com/file/d/1s1XWY2P_yRx_EMkvYXe5NUoo1WrBFL7j</t>
   </si>
   <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>19/02/2023</t>
-  </si>
-  <si>
-    <t>13/02/2023</t>
-  </si>
-  <si>
-    <t>10/12/2022</t>
-  </si>
-  <si>
-    <t>25/11/2022</t>
-  </si>
-  <si>
-    <t>15/11/2022</t>
-  </si>
-  <si>
-    <t>30/04/2022</t>
-  </si>
-  <si>
-    <t>24/08/2021</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
-    <t>01/03/2013</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>19/04/2023</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1uuocCDSux87HxfrrE5A43MBEGY_SDXKi</t>
   </si>
   <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
     <t>LMIC Award - This award is given to Ney Meziat-Filho for the oral presentation 'Cognitive functional therapy compared with coreexercises and manual therap in patients with chronic low back pain after spinal surgery: randomized controlled trial during the 18th International Forum for Back and Neck Pain Research in Primary Care - August 29- September 1, 2023 Groningen, The Netherlands</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/16qfuvY1BVp6ZeuWLxZ-LjMSwnd6zHGwm</t>
   </si>
   <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
     <t>MENÇÃO HONROSA - Certificamos que o trabalho intitulado "Comparação do julgamento de lateralidade com a funcionalidade, dor e aspectos proprioceptivos de indivíduos com Síndrome da dor patelofemoral" de autoria de Luiza Ferreira Moreira; Vanessa Knust Coelho; Lucas Ferreira Mendonça; Gustavo Felicio Telles; Leandro Alberto Calazans Nogueira recebeu Menção Honrosa pela apresentação no VI Congresso Brasileiro e Internacional daABRAFITO.</t>
   </si>
   <si>
@@ -253,9 +201,6 @@
     <t>COLABORADOR EMÉRITO DO EXÉRCITO - Diploma concedido a(o) Sra PATRICIA DOS SANTOS VIGÁRIO em reconhecimento aos relevantes serviços prestados ao Exército Brasileiro.</t>
   </si>
   <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
     <t>Conselho Regional de Fisioterapia e Terapia Ocupacional da 2a Região Certificado O Colegiado do Crefito-2 parabeniza e homenageia o professor Arthur de Sá Ferreira pelas contribuições realizadas e m prol do ensino da Fisioterapia na modalidade presencial, e reconhece o valoroso compromisso com aqualidade dos futuros profissionais.</t>
   </si>
   <si>
@@ -272,15 +217,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Ih0bWBmwGmZQ4IcSoeV0tbLa-O0k4LI7</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -327,18 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,509 +628,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="29" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
+    </row>
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{A485D302-FE3D-D64A-950C-8C0D3E8A7057}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{36CF8725-F50B-5D42-97B8-538541AFAC3B}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-    <sortCondition descending="1" ref="A2:A7"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5230BC43-109A-184D-8E9F-88EE481ED2D1}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{A485D302-FE3D-D64A-950C-8C0D3E8A7057}"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{36CF8725-F50B-5D42-97B8-538541AFAC3B}"/>
+    <hyperlink ref="C5" r:id="rId20" display="https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
+    <hyperlink ref="C6" r:id="rId21" display="https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
+    <hyperlink ref="C7" r:id="rId22" display="https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
+    <hyperlink ref="C8" r:id="rId23" display="https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
+    <hyperlink ref="C9" r:id="rId24" display="https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
+    <hyperlink ref="C10" r:id="rId25" display="https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
+    <hyperlink ref="C11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
+    <hyperlink ref="C3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
+    <hyperlink ref="C2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF80FC-5597-194A-B8F8-3E933DA3AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082D22F-7815-3346-8D79-589153516D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -238,6 +238,27 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Conferimos ao trabalho AVALIAÇAO DOS MÉTODOS PREDITIVOS DE RESPOSTA À PRESSÃO EXPIRATÓRIA FINAL (PEEP) EM INDIVÍDUOS COM SÍNDROME DO DESCONFORTO RESPIRATÓRIO AGUDO (SDRA) dos autores YURI RODRIGUES LUZ DE ARAUJO, AGNALDO JOSÉ LOPES, ARTHUR DE SÁ FERREIRA, LUIS FELIPE FONSECA REIS, o 3o lugar categoria poster - Fisioterapia Intensiva - Adulto, pelo trabalho apresentado durante o XXI Simpósio Internacional de Fisioterapi respiratória, Cardiovascular e em Terapia Intensiva da ASSOBRAFIR, realizado de 12 de junho a 15 de junho de 2024, em Brasília - DF.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-HF10fPjzo-jJ7WIO2SAboQRwPoWBEtD</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA aos autores Vinícius Nazareth e Thiago Lemos ao referido trabalho cientifico intitulado “Efeitos da restrição parcial do fluxo sanguíneo na atividade neuromuscular dos membros inferiores durante agachamento livre: estudo piloto”, apresentado no I Congresso da Saúde UNISUAM, realizado nos dias 10 a 15 de Abril de 2023.</t>
+  </si>
+  <si>
+    <t>Certificamos MENÇÃO HONROSA aos autores Flávia Albuquerque e Thiago Lemos ao referido trabalho cientifico intitulado “Avaliação da função dos membros superiores em nadadores através da posturografia e sua relação com disfunções musculoesqueléticas”, apresentado no I Congresso da Saúde UNISUAM, realizado nos dias 10 a 15 de Abril de 2023.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-LKJE7N5WLzw09YqY6Yi7ObF11vKZcDE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-LsSLXYqTttj8C0xWheu0Qj5uMGFmliF</t>
   </si>
 </sst>
 </file>
@@ -332,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,9 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -968,6 +991,39 @@
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1000,6 +1056,9 @@
     <hyperlink ref="C11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
     <hyperlink ref="C3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
     <hyperlink ref="C2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
+    <hyperlink ref="C31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082D22F-7815-3346-8D79-589153516D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7A69-7789-5142-94FE-D00241958889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-LsSLXYqTttj8C0xWheu0Qj5uMGFmliF</t>
+  </si>
+  <si>
+    <t>LEANDRO ALBERTO CALAZANS NOGUEIRAO presente certificado de honra ao mérito pelo reconhecimento ao trabalho ADAPTAÇÃO TRANSCULTURAL DAS FORMAS CURTAS DAS HEALING ENCOUNTERS AND ATTITU- DES LISTS PARA O CONTEXTO BRASILEIRO. apresentado durante o X Fórum Sthem Brasil - Inovação Acadêmica e Aprendizagem Ativa, realizado de forma virtual nos dias 10, 11 E 12 DE ABRIL DE 2024.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/170xqnKtvVVS-nrVOAc8R6Z6xm4_ow9Ez</t>
+  </si>
+  <si>
+    <t>Câmara Municipal do Rio de Janeiro - Moção  de Louvor e Reconhecimento - Classificador Funcional ESTÊVÃO RIOS MONTEIRO</t>
+  </si>
+  <si>
+    <t>Câmara Municipal do Rio de Janeiro - Título de Mérito Espoetivo - ESTÊVÃO RIOS MONTEIRO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17832QL9mMCEHrTwuPA3Wv_4Ny85dcVU5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/178sprdbQ2vcU816pu8iZbOHrM9uhs8Dv</t>
   </si>
 </sst>
 </file>
@@ -353,9 +371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,11 +667,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1024,6 +1040,39 @@
       </c>
       <c r="C33" s="4" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1059,6 +1108,9 @@
     <hyperlink ref="C33" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
     <hyperlink ref="C32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
     <hyperlink ref="C31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7A69-7789-5142-94FE-D00241958889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2D25D-3DA9-9F4B-A9F1-030624939B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/178sprdbQ2vcU816pu8iZbOHrM9uhs8Dv</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Índia</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,442 +687,551 @@
   <cols>
     <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="129.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="64" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
-    <hyperlink ref="C27" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
-    <hyperlink ref="C24" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{A485D302-FE3D-D64A-950C-8C0D3E8A7057}"/>
-    <hyperlink ref="C15" r:id="rId15" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C16" r:id="rId16" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
-    <hyperlink ref="C13" r:id="rId17" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
-    <hyperlink ref="C14" r:id="rId18" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{36CF8725-F50B-5D42-97B8-538541AFAC3B}"/>
-    <hyperlink ref="C5" r:id="rId20" display="https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
-    <hyperlink ref="C6" r:id="rId21" display="https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
-    <hyperlink ref="C7" r:id="rId22" display="https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
-    <hyperlink ref="C8" r:id="rId23" display="https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
-    <hyperlink ref="C9" r:id="rId24" display="https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
-    <hyperlink ref="C10" r:id="rId25" display="https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
-    <hyperlink ref="C11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
-    <hyperlink ref="C3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
-    <hyperlink ref="C2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
-    <hyperlink ref="C33" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
-    <hyperlink ref="C32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
-    <hyperlink ref="C31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
-    <hyperlink ref="C34" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
-    <hyperlink ref="C36" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{71617BC9-93FB-FA4F-BB2D-4EDC9FBBA5C6}"/>
+    <hyperlink ref="D29" r:id="rId2" xr:uid="{E2A652C6-A37D-4047-A1E2-8BC5E13B1D9C}"/>
+    <hyperlink ref="D26" r:id="rId3" xr:uid="{BCE7D0E0-7F6A-2A4A-A3C3-CD3563CC8923}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{E0BAE488-4C6E-2D42-A380-1F01414490CA}"/>
+    <hyperlink ref="D28" r:id="rId5" xr:uid="{5CB2F289-DF3B-BF4A-AFEA-A2CE89BF00FB}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{C13DC0BD-5CD7-8149-9777-0D840A411D8C}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{216B307D-F8FD-D241-8CDD-2F559153D831}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{6CD35CAE-140F-B441-B0A9-4649EE329B61}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{E9287EF2-11E1-EF48-BA08-BC7C31880622}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{67CF0730-7E34-B641-A799-44F30D260781}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{B547D274-3299-284C-9BF1-0B2B9ACBFF84}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{9FC6FD65-5D77-0641-BC1E-74CA8F0F1412}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{E7D86941-70A8-E745-8F3E-7CF0839ACCC9}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{A485D302-FE3D-D64A-950C-8C0D3E8A7057}"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="D16" r:id="rId16" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{36CF8725-F50B-5D42-97B8-538541AFAC3B}"/>
+    <hyperlink ref="D5" r:id="rId20" display="https://drive.google.com/file/d/1uIxFxvJqDgBQliWiqUy7_5MiDlvHFP-Z/view?usp=sharing" xr:uid="{04792A0F-B8EC-0041-A48A-94EAC1170170}"/>
+    <hyperlink ref="D6" r:id="rId21" display="https://drive.google.com/file/d/1GHuVG_5domeAbCKN6nDlCu9lgFKao3OF/view?usp=sharing" xr:uid="{9F556CC3-674A-474A-907E-2A499AB3857A}"/>
+    <hyperlink ref="D7" r:id="rId22" display="https://drive.google.com/file/d/1BSJTrDASgVtfT61XEwULGBtx6s1tAZ-w/view?usp=sharing" xr:uid="{AEF9A077-7748-E647-BFFD-57B81CAC8716}"/>
+    <hyperlink ref="D8" r:id="rId23" display="https://drive.google.com/file/d/1aSOjEF4gT-LM_QFNIUKdoe_E68VierwJ/view?usp=sharing" xr:uid="{D5BD2064-D9FD-2442-9CAE-C9013CA44F04}"/>
+    <hyperlink ref="D9" r:id="rId24" display="https://drive.google.com/file/d/18upAq9SqZPyYeTGcY7NtBqV4JmszvuqC/view?usp=sharing" xr:uid="{3FFA534F-BFC4-ED46-BFD5-71142DEBD6D2}"/>
+    <hyperlink ref="D10" r:id="rId25" display="https://drive.google.com/file/d/1P5aVt2EkOHWSlhrnYIKK3QaM9iQoOWRO/view?usp=sharing" xr:uid="{F4E5A69C-258E-344B-9E02-54EB94DFE9DC}"/>
+    <hyperlink ref="D11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
+    <hyperlink ref="D3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
+    <hyperlink ref="D2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
+    <hyperlink ref="D33" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
+    <hyperlink ref="D35" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2D25D-3DA9-9F4B-A9F1-030624939B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EB5DE-ABF6-0F48-9410-8DFA930661F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Índia</t>
+  </si>
+  <si>
+    <t>Premiação obtida na categoria Banner, no 1o Congresso de Saúde Coletiva do Maranhão e III Mostra Científica Da SES/MA, em 2023, com o trabalho intitulado “Controle Postural na posição sentada quieta em atletas de rúgbi em cadeiras de rodas”, desenvolvido na sua dissertação de Mestrado em Ciências da Reabilitação da UNISUAM.</t>
   </si>
 </sst>
 </file>
@@ -320,12 +323,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -362,6 +371,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -679,9 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1140,46 +1154,44 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1187,12 +1199,26 @@
         <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1226,12 +1252,12 @@
     <hyperlink ref="D11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
     <hyperlink ref="D3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
     <hyperlink ref="D2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
-    <hyperlink ref="D33" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
     <hyperlink ref="D32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
     <hyperlink ref="D31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
+    <hyperlink ref="D35" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
+    <hyperlink ref="D37" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EB5DE-ABF6-0F48-9410-8DFA930661F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44C0EE-0B12-3D4C-A795-A6F4714ED1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>Premiação obtida na categoria Banner, no 1o Congresso de Saúde Coletiva do Maranhão e III Mostra Científica Da SES/MA, em 2023, com o trabalho intitulado “Controle Postural na posição sentada quieta em atletas de rúgbi em cadeiras de rodas”, desenvolvido na sua dissertação de Mestrado em Ciências da Reabilitação da UNISUAM.</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WhrNBufHT99Oc2NBmp1gWwa-7ZX9Souh</t>
+  </si>
+  <si>
+    <t>FACULTY OF MEDICINE, HEALTH AND HUMAN SCIENCES - Leticia Amaral Correa - DEPARTMENT OF CHIROPRACTIC - Departmental Award 2025 - "Back pain Knowledge and beliefs Survey (BacKS): development and assessment of measurement properties" - Published in British Journal of Sports - Medicine, 24th of September 2024</t>
   </si>
 </sst>
 </file>
@@ -395,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1178,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -1220,6 +1232,20 @@
       </c>
       <c r="D37" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1258,6 +1284,7 @@
     <hyperlink ref="D35" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
     <hyperlink ref="D36" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
     <hyperlink ref="D37" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
+    <hyperlink ref="D38" r:id="rId35" xr:uid="{A3FEB52D-B896-8B49-8945-351C71D01497}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44C0EE-0B12-3D4C-A795-A6F4714ED1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21CD65-49CD-984A-B2F5-8CD0B5D63346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1GVLt4PCha0dBewa5YTFz7VqeoFEgBXiX</t>
-  </si>
-  <si>
-    <t>Ceritifico que RODRIGO RIBEIRO recebeu o prêmio Pólen UNISUAM Awards, realizado no dia 13/02/23 e organizado pelo Pólen - Polo de Inovação da UNISUAM, na categoria de Coordenador do Centro Universitário Augusto Motta que mais fomentou a Inovação e o Empreededorismo.</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lcPzLdnI_wxl4RLC3RV8spQ_DZVjKIl2</t>
@@ -304,6 +301,28 @@
   </si>
   <si>
     <t>FACULTY OF MEDICINE, HEALTH AND HUMAN SCIENCES - Leticia Amaral Correa - DEPARTMENT OF CHIROPRACTIC - Departmental Award 2025 - "Back pain Knowledge and beliefs Survey (BacKS): development and assessment of measurement properties" - Published in British Journal of Sports - Medicine, 24th of September 2024</t>
+  </si>
+  <si>
+    <t>Certifico que RODRIGO RIBEIRO recebeu o prêmio Pólen UNISUAM Awards, realizado no dia 13/02/23 e organizado pelo Pólen - Polo de Inovação da UNISUAM, na categoria de Coordenador do Centro Universitário Augusto Motta que mais fomentou a Inovação e o Empreededorismo.</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho intitulado RELAÇÃO ENTRE FUNÇÃO PULMONAR, CAPACIDADE FUNCIONAL E FORÇA MUSCULAR PERIFÉRICA EM PACIENTES COM DOENÇA PULMONAR PÓS-TUBERCULOSE: ESTUDO PRELIMINAR de autoria de Vitor Farias De Sousa, Iasmim Maria Pereira Pinto Fonseca, VINICIUS OLIVEIRA RODRIGUES DE JESUS, Jéssica Gabriela Messias Oliveira, Ana Paula Santos, Thiago Mafort e Agnaldo José Lopes, um dos Melhores Trabalhos de Temas Livres na área Temática Pesquisa Básica e Clínica da Jornada Acadêmica da Faculdade de Ciências Médicas do 62o Congresso Científico do Hupe - Transplantes: Conectando Vidas, realizado em 26/08/2024 a 30/08/2024, na cidade de Rio de Janeiro.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wXiivnQGXYzgcwW3brLGawJXW5WDyS91</t>
+  </si>
+  <si>
+    <t>TÍTULO DE MÉRITO ESPORTIVO Ilestre Hélio Gracie O Presidente da Câmara Municipal do Rio de Janeiro, no uso de suas atribuições legais e tendo em vista o Requerimento n° 2322/2023 de autoria da Senhora Tereadora Luciana Novaes Resolução da Mesa Diretora n° 11425/2023, aprovado em 30/05/2023, resolve conferir esta comenda ao Senhor Estevão Rico Monteiro</t>
+  </si>
+  <si>
+    <t>Câmara Municipal do Rio de Janeiro - Moção - REQUEIRO à Mesa Diretora, na forma regimental, que registre, nos Anais desta Augusta Casa de Leis,
+MOCÃO de LOUVOR e RECONHECIMENTO Classificador Funcional Estêvão Rios Monteiro</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WEfEpnOpoaEUjBdogaD-K-d0_xTg0imj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_mKueKb92P2vrWizq0PKU875PBn0Ew1s</t>
   </si>
 </sst>
 </file>
@@ -703,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,41 +739,41 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -762,13 +781,13 @@
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -776,13 +795,13 @@
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -790,13 +809,13 @@
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -804,13 +823,13 @@
     </row>
     <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -818,13 +837,13 @@
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -832,13 +851,13 @@
     </row>
     <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -846,13 +865,13 @@
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -860,13 +879,13 @@
     </row>
     <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
@@ -874,13 +893,13 @@
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>27</v>
@@ -888,13 +907,13 @@
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -902,13 +921,13 @@
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
@@ -916,13 +935,13 @@
     </row>
     <row r="15" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
@@ -930,13 +949,13 @@
     </row>
     <row r="16" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
@@ -944,308 +963,350 @@
     </row>
     <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="4" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1278,13 +1339,16 @@
     <hyperlink ref="D11" r:id="rId26" display="https://drive.google.com/file/d/1dQAA9yN7EIr6A16rdYwH5lIkh1xI6e4X/view?usp=sharing" xr:uid="{169BE359-566A-604A-A375-13DD3C569DBE}"/>
     <hyperlink ref="D3" r:id="rId27" display="https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj/view?usp=sharing" xr:uid="{3BF680B0-566F-A547-A7A4-12BBDC194F81}"/>
     <hyperlink ref="D2" r:id="rId28" xr:uid="{84E6C9BC-7723-4246-9E3C-BC347B7F96F5}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
+    <hyperlink ref="D36" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
     <hyperlink ref="D32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
     <hyperlink ref="D31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
-    <hyperlink ref="D35" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
-    <hyperlink ref="D36" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
-    <hyperlink ref="D37" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
-    <hyperlink ref="D38" r:id="rId35" xr:uid="{A3FEB52D-B896-8B49-8945-351C71D01497}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
+    <hyperlink ref="D41" r:id="rId35" xr:uid="{A3FEB52D-B896-8B49-8945-351C71D01497}"/>
+    <hyperlink ref="D40" r:id="rId36" xr:uid="{94DA42C3-67C9-484E-BD90-BDBAD0E5818B}"/>
+    <hyperlink ref="D33" r:id="rId37" xr:uid="{47853D5A-0CE1-EB49-96A4-3D7A6036DD33}"/>
+    <hyperlink ref="D34" r:id="rId38" xr:uid="{EA5611D7-CE09-D345-BDE8-0025AF8DE8BE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21CD65-49CD-984A-B2F5-8CD0B5D63346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8456A2F-3F2A-384A-AA36-257D259D93E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_mKueKb92P2vrWizq0PKU875PBn0Ew1s</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho intitulado EXERCÍCIOS DOMICILIARES NÃO SUPERVISIONADOS COM MÍNIMOS RECURSOS VERSUS EXERCÍCIOS AMBULATORIAIS SUPERVISIONADOS NA SÍNDROME PÓS-COVID: ENSAIO CONTROLADO E RANDOMIZADO de autoria de ANA CAROLINA SEBASTIÃO DA SILVA; AGNALDO JOSÉ LOPES; ARTHUR DE SÁ FERREIRA; LUIS FELIPE DA FONSECA REIS foi apresentado na forma de PRÊMIO JOVEM PESQUISADOR (PJP) no XXI Simpósio Internacional de Fisioterapia Respiratória, Cardiovascular e Terapia Intensiva – SIFR, realizado nos dias 13, 14 e 15 de junho de 2024, no Centro Internacional de Convenções do Brasil – CICB, em Brasília-DF. Brasília, 15 de junho de 2024.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F8Hr9_hzxK4PudqahMhPHpCWGnoLkLLg</t>
+  </si>
+  <si>
+    <t>A Pró-Reitoria de Pesquisa, Pós-Graduação e Inovação, do Instituto Federal de Educação, Ciência e Tecnologia do Rio de Janeiro (IFRJ), atribui MENÇÃO HONROSA ao trabalho da área de Ciências da Saúde, intitulado QUALIDADE DO SONO DE CORREDORES DE RUA: UMA ANÁLISE DESCRITIVA, autoria de JOÃO EMILIO REZENDE DE CARVALHO,GUSTAVO FELICIO TELLES,LEANDRO ALBERTO CALAZANS NOGUEIRA, apresentado na XVIII Jornada Interna de Iniciação Científica e Tecnológica (JIT), realizada de forma virtual no dia 02 de dezembro de 2024.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NCisTSitsKpldOKwAi8DVNS9EkQoWP1G</t>
   </si>
 </sst>
 </file>
@@ -426,9 +438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,32 +1251,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1272,40 +1284,68 @@
         <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1342,13 +1382,15 @@
     <hyperlink ref="D36" r:id="rId29" xr:uid="{E52D00EC-B1A9-DB48-B760-3C8A6FEEF962}"/>
     <hyperlink ref="D32" r:id="rId30" xr:uid="{0BF7C741-A9A3-F749-99DF-758A1FED4B38}"/>
     <hyperlink ref="D31" r:id="rId31" xr:uid="{E5F68B69-2316-A64A-AFE6-5F5AFD71BB94}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
-    <hyperlink ref="D41" r:id="rId35" xr:uid="{A3FEB52D-B896-8B49-8945-351C71D01497}"/>
-    <hyperlink ref="D40" r:id="rId36" xr:uid="{94DA42C3-67C9-484E-BD90-BDBAD0E5818B}"/>
+    <hyperlink ref="D38" r:id="rId32" xr:uid="{BB70FE73-7627-1E4B-8418-4BD08BECE898}"/>
+    <hyperlink ref="D39" r:id="rId33" xr:uid="{F9F029D2-1823-A440-80CE-20BA7EA41C3A}"/>
+    <hyperlink ref="D40" r:id="rId34" xr:uid="{6797E200-8E76-1445-B99F-010A03D605F2}"/>
+    <hyperlink ref="D43" r:id="rId35" xr:uid="{A3FEB52D-B896-8B49-8945-351C71D01497}"/>
+    <hyperlink ref="D41" r:id="rId36" xr:uid="{94DA42C3-67C9-484E-BD90-BDBAD0E5818B}"/>
     <hyperlink ref="D33" r:id="rId37" xr:uid="{47853D5A-0CE1-EB49-96A4-3D7A6036DD33}"/>
     <hyperlink ref="D34" r:id="rId38" xr:uid="{EA5611D7-CE09-D345-BDE8-0025AF8DE8BE}"/>
+    <hyperlink ref="D37" r:id="rId39" xr:uid="{8F9CBF95-C64E-8941-BDBA-B3AA0F4E0087}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{6825946E-2AB4-2544-ACBE-A1C951E7A73C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8456A2F-3F2A-384A-AA36-257D259D93E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98699296-B1B1-4940-B47D-491DC5CC6229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1NCisTSitsKpldOKwAi8DVNS9EkQoWP1G</t>
+  </si>
+  <si>
+    <t>Dear Sampath Kumar - Abstract number: 1924 - Congratulations, the above abstract scored highly in the abstract review process and has been shortlisted for an outstanding poster award.</t>
+  </si>
+  <si>
+    <t>Reuno Unido</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/190wUsoU8IBEmz-Bkv2lJ5yScPCd6HGFK</t>
   </si>
 </sst>
 </file>
@@ -438,9 +447,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +487,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +593,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,6 +1356,20 @@
       </c>
       <c r="D43" s="4" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1391,6 +1414,7 @@
     <hyperlink ref="D34" r:id="rId38" xr:uid="{EA5611D7-CE09-D345-BDE8-0025AF8DE8BE}"/>
     <hyperlink ref="D37" r:id="rId39" xr:uid="{8F9CBF95-C64E-8941-BDBA-B3AA0F4E0087}"/>
     <hyperlink ref="D42" r:id="rId40" xr:uid="{6825946E-2AB4-2544-ACBE-A1C951E7A73C}"/>
+    <hyperlink ref="D44" r:id="rId41" xr:uid="{398263C8-2EBE-9F47-BF53-8022547E8878}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98699296-B1B1-4940-B47D-491DC5CC6229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5BBC-B534-F64D-B46C-F79011A18469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/190wUsoU8IBEmz-Bkv2lJ5yScPCd6HGFK</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho ASSOCIAÇÃO ISOLADA E COMBINADA DA ATIVIDADE FÍSICA E TEMPO SENTADO COM QUEDAS EM ADULTOS MAIS VELHOS BRASILEIROS: ACHADOS TRANSVERSAIS DA COORTE ELSI-BRASIL dos autores Juleimar Soares Coelho de Amorim;Mônica Rodrigues Perracini; Bruno de Souza Moreira;Luiza Ferreira Moreira;Juliana Lustosa Torres; Foi premiado na categoria Prêmio Melhor Pôster Seleção Top20 - Geroritologia - 2° Lugar, apresentado na modalivade Pôster Eletrônico durante ~ XXIV Congresso Brasileiro de Geriatria e Gerontologia 2025, realizado de 03 a 05 de abril de 2025, no Minas Centro, em Belo Horizonte.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f0_olnjKo4Yk3Q8WpFI4XtiQ6YOJqMNm</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1370,6 +1376,20 @@
       </c>
       <c r="D44" s="4" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +1435,7 @@
     <hyperlink ref="D37" r:id="rId39" xr:uid="{8F9CBF95-C64E-8941-BDBA-B3AA0F4E0087}"/>
     <hyperlink ref="D42" r:id="rId40" xr:uid="{6825946E-2AB4-2544-ACBE-A1C951E7A73C}"/>
     <hyperlink ref="D44" r:id="rId41" xr:uid="{398263C8-2EBE-9F47-BF53-8022547E8878}"/>
+    <hyperlink ref="D45" r:id="rId42" xr:uid="{3A0D4618-B734-524B-BFA3-DF3E03E6EDEC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5BBC-B534-F64D-B46C-F79011A18469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715551D-017A-0C48-9D17-B947D2AA1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="900" yWindow="680" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1f0_olnjKo4Yk3Q8WpFI4XtiQ6YOJqMNm</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho intitulado Functional status and barriers to cardiac rehabilitation as predictors of 1-year mortality in acute coronary syndrome: a longitudinal study de autoria de: Gabriel Parisotto; Mauricio de Sant'Anna Junior; Jannis Papathanasiou; Luis Felipe da Fonseca Reis; Arthur Sá Ferreira foi premiado com o 2º Lugar, na Área: FISIOTERAPIA CARDIOVASCULAR - ADULTO apresentado na forma de PÔSTER, no V CONGRESSO NORTISTA DE FISIOTERAPIA RESPIRATÓRIA, FISIOTERAPIA CARDIOVASCULAR E EM FISIOTERAPIA TERAPIA INTENSIVA - V CONFIR, e II CONGRESSO AMAPAENSE DE FISIOTERAPIA RESPIRATÓRIA, CARDIOVASCULAR E TERAPIA INTENSIVA - II CONAFIR realizado no período de 12 a 14 de setembro de 2025, em Macapá, AP. Macapá, 14 de setembro de 2025.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IgdilcF9QJmhY2w64vqT5IuJXVV-FmUj</t>
   </si>
 </sst>
 </file>
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,6 +1396,20 @@
       </c>
       <c r="D45" s="4" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1436,6 +1456,7 @@
     <hyperlink ref="D42" r:id="rId40" xr:uid="{6825946E-2AB4-2544-ACBE-A1C951E7A73C}"/>
     <hyperlink ref="D44" r:id="rId41" xr:uid="{398263C8-2EBE-9F47-BF53-8022547E8878}"/>
     <hyperlink ref="D45" r:id="rId42" xr:uid="{3A0D4618-B734-524B-BFA3-DF3E03E6EDEC}"/>
+    <hyperlink ref="D46" r:id="rId43" xr:uid="{197E14B1-1B93-8D46-8B9A-BB038810B373}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715551D-017A-0C48-9D17-B947D2AA1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62776408-8A72-934D-AAD1-219701ED0482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="680" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="920" yWindow="680" windowWidth="28520" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prêmios" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Certificamos que SAMANTHA GOMES DE ALEGRIA, participou do “1o CONGRESSO ONLINE INTERNACIONAL DE FISIOTERAPIA MÚSCULOESQUELÉTICA”, de 17 a 18 de Abril de 2021, realizado pelo “Grupo Acolher e Cuidar”, com carga horária de 180 horas</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1IgdilcF9QJmhY2w64vqT5IuJXVV-FmUj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-oLZEF8s4t0bwlYTsoMoACHoq8zmKEAn</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho intitulado INCIDÊNCIA E PREVALÊNCIA DE DOR EM PACIENTES VENTILADOS MECANICAMENTE: RESULTADOS PRELIMINARES DE UMA COORTE MULTICENTRICA de autoria de: RAÍSA MARTINS BORGHI, ANDREIA ROSANGELA OLIVEIRA DE MORAIS DO CARMO, MARCELLY BERMUDES DE CARVALHO, AGNALDO JOSÉ LOPES, ARTHUR DE SÁ FERREIRA, LUIS FELIPE DA FONSECA REIS foi premiado com o 3º Lugar, na Área: FISIOTERAPIA EM TERAPIA INTENSIVA - ADULTO apresentado na forma de PÔSTER TEMÁTICO, no V Congresso do Sudeste de Fisioterapia Respiratória, Cardiovascular e em Terapia Intensiva da ASSOBRAFIR - SUDESFIR e IV Congresso Brasileiro de Fisioterapia Respiratória nos Distúrbios Respiratórios do Sono e do II Congresso Latino-americano de Fisioterapia Respiratória nos Distúrbios Respiratórios do Sono realizado no período de 02 a 04 de outubro de 2025, em Belo Horizonte, MG. Belo Horizonte, 04 de outubro de 2025.</t>
+  </si>
+  <si>
+    <t>Certificamos que o trabalho intitulado TREINAMENTO MUSCULAR INSPIRATÓRIO DE MODERADA-ALTA INTENSIDADE VERSUS BAIXA INTENSIDADE NA APNEIA OBSTRUTIVA DO SONO: METANÁLISE DE ENSAIOS CLÍNICOS RANDOMIZADOS de autoria de: JENNIFER MARIA DE ALMEIDA AGUIAR, LEANDRO MIRANDA DE AZEREDO, CLARA PINTO DINIZ, LUIS FELIPE DA FONSECA REIS foi premiado com o 3º Lugar, na Área: FISIOTERAPIA RESPIRATÓRIA NOS DISTÚRBIOS DO SONO apresentado na forma de PÔSTER TEMÁTICO, no V Congresso do Sudeste de Fisioterapia Respiratória, Cardiovascular e em Terapia Intensiva da ASSOBRAFIR - SUDESFIR e IV Congresso Brasileiro de Fisioterapia Respiratória nos Distúrbios Respiratórios do Sono e do Il Congresso Latino-americano de Fisioterapia Respiratória nos Distúrbios Respiratórios do Sono realizado no período de 02 a 04 de outubro de 2025, em Belo Horizonte, MG. Belo Horizonte, 04 de outubro de 2025.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/159IW8t1qWDiMdCxLoWjvhYFVHCqQOlVv</t>
   </si>
 </sst>
 </file>
@@ -755,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CACD3-9479-9B42-828C-5ED4A3697A49}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,6 +1422,34 @@
       </c>
       <c r="D46" s="4" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1457,6 +1497,8 @@
     <hyperlink ref="D44" r:id="rId41" xr:uid="{398263C8-2EBE-9F47-BF53-8022547E8878}"/>
     <hyperlink ref="D45" r:id="rId42" xr:uid="{3A0D4618-B734-524B-BFA3-DF3E03E6EDEC}"/>
     <hyperlink ref="D46" r:id="rId43" xr:uid="{197E14B1-1B93-8D46-8B9A-BB038810B373}"/>
+    <hyperlink ref="D47" r:id="rId44" xr:uid="{6B4C376A-2731-C845-9725-442EFCA73F62}"/>
+    <hyperlink ref="D48" r:id="rId45" xr:uid="{CC007CC7-32B1-2B44-9076-125828D11640}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
